--- a/medicine/Enfance/Kimiko_(illustratrice)/Kimiko_(illustratrice).xlsx
+++ b/medicine/Enfance/Kimiko_(illustratrice)/Kimiko_(illustratrice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kimiko est une auteure pour la jeunesse et illustratrice française née en 1963, active en France.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née d'une mère japonaise et d'un père français, Kimiko suit des études de stylisme à Tokyo, puis elle travaille pour une maison de haute couture à Paris avant de quitter la mode pour réaliser des livres pour enfants[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née d'une mère japonaise et d'un père français, Kimiko suit des études de stylisme à Tokyo, puis elle travaille pour une maison de haute couture à Paris avant de quitter la mode pour réaliser des livres pour enfants. 
 La plupart de ses livres sont publiés à L'École des loisirs.
 </t>
         </is>
@@ -543,11 +557,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : site de L'École des loisirs[1]. 
-Comme auteure-illustratrice
-Grodino, 1993.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source : site de L'École des loisirs. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kimiko_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kimiko_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comme auteure-illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grodino, 1993.
 Série des Popo :
 Au dodo, Popo !, 1993 ;
 Joyeux Noël, Popo !, 1993 ;
@@ -610,11 +661,79 @@
 Le Grand méchant loup et le petit chaperon rouge, 2013.
 Théo météo, 2013.
 Hansel le gourmand et Gretel la courageuse, 2014.
-Un jour à la mer, 2015.
-Comme auteure
-Iloveyou, illustrations de Grégoire Solotareff, 2005.
-Comme illustratrice
-La Chambre de Vincent, textes de Grégoire Solotareff, 1999.
+Un jour à la mer, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kimiko_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kimiko_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comme auteure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Iloveyou, illustrations de Grégoire Solotareff, 2005.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kimiko_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kimiko_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme illustratrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Chambre de Vincent, textes de Grégoire Solotareff, 1999.
 La Princesse aux grands pieds, textes d'Élisabeth Motsch, 1999.
 Mister Ka et la cave aux mystères, textes d'Élisabeth Motsch, 2000.
 Les Poussières à la plage, textes de Marie-Sophie Vermot, 2000.
